--- a/numerical_results.xlsx
+++ b/numerical_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algar\Documents\Travail\GitHub\AIMathAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95EBDF8-D4F3-47FB-8F71-54FEAF1E7A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7C7E6-C3A5-49D7-B092-8ED2B8F5E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>19</c:v>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">

--- a/numerical_results.xlsx
+++ b/numerical_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algar\Documents\Travail\GitHub\AIMathAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7C7E6-C3A5-49D7-B092-8ED2B8F5E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421772D8-3241-4F0D-801D-B45E0E7F3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Number of answers" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>Zero-shot-CoT</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
   </si>
 </sst>
 </file>
@@ -135,7 +139,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'Number of answers'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -214,7 +218,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>'Number of answers'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -237,7 +241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>'Number of answers'!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -270,7 +274,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Number of answers'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -349,7 +353,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>'Number of answers'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -372,7 +376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>'Number of answers'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -719,7 +723,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Accuracy!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero-shot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Accuracy!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ChatGPT-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ChatGPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wolfram GPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LLaMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Accuracy!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-344B-4108-BCB0-DE0C9E1DCBFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Accuracy!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zero-shot-CoT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Accuracy!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ChatGPT-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ChatGPT-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wolfram GPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LLaMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Accuracy!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-344B-4108-BCB0-DE0C9E1DCBFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="263066288"/>
+        <c:axId val="263063888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="263066288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263063888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263063888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263066288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1262,6 +1801,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1283,6 +2325,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD8C28D-8CB8-CDF4-A385-D2248DE89554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE927C5E-1F3A-B1B4-B6E5-C5803AB406C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1658,4 +2741,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70582596-7ED2-49AF-80ED-89956A387F03}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>